--- a/Framework/TestData/Automation_Input_Data_Sheet.xlsx
+++ b/Framework/TestData/Automation_Input_Data_Sheet.xlsx
@@ -103,10 +103,10 @@
     <t>Book Flight Ticket for round trip</t>
   </si>
   <si>
-    <t>23-July-2017</t>
-  </si>
-  <si>
-    <t>22-July-2017</t>
+    <t>23-OCTOBER-2017</t>
+  </si>
+  <si>
+    <t>28-OCTOBER-2017</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,7 +538,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,7 +550,8 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -647,10 +648,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
